--- a/data/trans_bre/P45C_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-0.2431217186975615</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-5.303441317310353</v>
+        <v>-5.303441317310351</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.257071963659266</v>
@@ -649,7 +649,7 @@
         <v>-0.03689037842570531</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.3681740731562875</v>
+        <v>-0.3681740731562874</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.589372941425567</v>
+        <v>-4.700745466297258</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.502526051061563</v>
+        <v>-4.388933553708594</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.608129559586873</v>
+        <v>-2.807235897061693</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-8.628292724904473</v>
+        <v>-9.132242393844635</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.4346956054475944</v>
+        <v>-0.4423362454940999</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.34194807255929</v>
+        <v>-0.3453650991070555</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3322664414301098</v>
+        <v>-0.346960516917121</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.5103260551406212</v>
+        <v>-0.5275475486329748</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.152262844286391</v>
+        <v>-0.09038687070235832</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8170879869941126</v>
+        <v>1.068895414913972</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.511236873835753</v>
+        <v>2.169196851030112</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.096319171478894</v>
+        <v>-2.111225876965995</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.02457362311599981</v>
+        <v>-0.007742364380274694</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09332346232444098</v>
+        <v>0.1075534882299012</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4909370962722251</v>
+        <v>0.427331605824894</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.1682992383322525</v>
+        <v>-0.1694326789731059</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>0.5495026062794284</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-3.578124633105448</v>
+        <v>-3.578124633105456</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.197417652400167</v>
@@ -749,7 +749,7 @@
         <v>0.03564684829224129</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.1948875187596156</v>
+        <v>-0.194887518759616</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-6.220475015507269</v>
+        <v>-6.148843288490485</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.40577767055452</v>
+        <v>-6.133603853855091</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.614912309249159</v>
+        <v>-1.834808224815759</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-5.918310744676479</v>
+        <v>-6.0426104371146</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3060304405182507</v>
+        <v>-0.3055900486091793</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3007039199385629</v>
+        <v>-0.2973443476554802</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.09906748083299494</v>
+        <v>-0.1112812992833806</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.303173283626559</v>
+        <v>-0.3067578529902175</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-0.9852114482003717</v>
+        <v>-0.9696531751479682</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-1.227246237511227</v>
+        <v>-1.22998822357321</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.893768238001833</v>
+        <v>2.90265170493842</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.089770901582358</v>
+        <v>-1.104218491620734</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.05669940732054668</v>
+        <v>-0.05250338619178017</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.0650454982645861</v>
+        <v>-0.06681030247509005</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2027725918305179</v>
+        <v>0.2024371108980939</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.06449100934703378</v>
+        <v>-0.06535824971114361</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.12434559747369</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.148819679596813</v>
+        <v>-1.148819679596808</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04102282382921265</v>
@@ -849,7 +849,7 @@
         <v>0.1346884916574264</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.07663591468108313</v>
+        <v>-0.07663591468108279</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.375056897093507</v>
+        <v>-4.093308077404972</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.49876052548696</v>
+        <v>-12.61615670861153</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.673361071515378</v>
+        <v>-2.463372512607612</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.259453281465367</v>
+        <v>-4.993435380502217</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2143356977009372</v>
+        <v>-0.197903056085178</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5121445594770986</v>
+        <v>-0.4923544336469758</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1494583279777779</v>
+        <v>-0.1451421570868966</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.2997262909994133</v>
+        <v>-0.2933433906189628</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.966634243818499</v>
+        <v>5.798404908028194</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.019955041718076</v>
+        <v>-1.947138269386597</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.732011526961215</v>
+        <v>6.782169838135575</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.552283135043685</v>
+        <v>2.436629502922109</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3786833034199835</v>
+        <v>0.3592684994429193</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1030354832351919</v>
+        <v>-0.09625738633263664</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4867137818948021</v>
+        <v>0.4922975944420508</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.2104938545208137</v>
+        <v>0.2021553686573949</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>0.05564622949574272</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.683885382091381</v>
+        <v>-3.683885382091379</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.2088111782295789</v>
@@ -949,7 +949,7 @@
         <v>0.004120088195323506</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2163523594504109</v>
+        <v>-0.2163523594504108</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.851623507770142</v>
+        <v>-5.021382432836167</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.830164175419314</v>
+        <v>-5.907048161277493</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.67126353370249</v>
+        <v>-1.595507137012546</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.533930350592488</v>
+        <v>-5.525482443469587</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2912893312226296</v>
+        <v>-0.3014101849602978</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3149230088266551</v>
+        <v>-0.3185451540144424</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1141778194441573</v>
+        <v>-0.1126057667581573</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3055839243613543</v>
+        <v>-0.3024142731626286</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.578288845169964</v>
+        <v>-1.616774294195156</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-2.385878114198318</v>
+        <v>-2.467796095375719</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1.729772720743576</v>
+        <v>1.841738606404609</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-1.913865737078219</v>
+        <v>-1.9843949352818</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1061488201614249</v>
+        <v>-0.1081968963647896</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.1438930850334539</v>
+        <v>-0.1510965076030387</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1382079668027559</v>
+        <v>0.1451582328383724</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.1212215899717042</v>
+        <v>-0.118330568572967</v>
       </c>
     </row>
     <row r="16">
